--- a/Zon.xlsx
+++ b/Zon.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f31e73b004c6ed25/Work/LDND-Formatter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3DDD00EB147B4F16592C4CD6A52B1949797ACB57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A21D58-AE53-4DEC-96E3-2F3817806FD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$217</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2807,8 +2798,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2871,14 +2862,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2925,7 +2908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2957,27 +2940,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3009,24 +2974,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3202,17 +3149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N225" sqref="N225"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3268,7 +3212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3279,7 +3223,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3323,7 +3267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3373,7 +3317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3423,7 +3367,7 @@
         <v>913.11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3473,7 +3417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3523,7 +3467,7 @@
         <v>913.11</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3534,7 +3478,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3581,7 +3525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3634,7 +3578,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3687,7 +3631,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3740,7 +3684,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3793,7 +3737,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3846,7 +3790,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3899,7 +3843,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3952,7 +3896,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4005,7 +3949,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4058,7 +4002,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4111,7 +4055,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4164,7 +4108,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4217,7 +4161,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4270,7 +4214,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4323,7 +4267,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4376,7 +4320,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4429,7 +4373,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4482,7 +4426,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4535,7 +4479,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4588,7 +4532,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4641,7 +4585,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4694,7 +4638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4738,16 +4682,16 @@
         <v>4000</v>
       </c>
       <c r="P31">
-        <v>547.86599999999999</v>
+        <v>547.866</v>
       </c>
       <c r="R31">
         <v>4000</v>
       </c>
       <c r="S31">
-        <v>547.86599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>547.866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4791,16 +4735,16 @@
         <v>5500</v>
       </c>
       <c r="P32">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R32">
         <v>5500</v>
       </c>
       <c r="S32">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4844,16 +4788,16 @@
         <v>5500</v>
       </c>
       <c r="P33">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R33">
         <v>5500</v>
       </c>
       <c r="S33">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4906,7 +4850,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4959,7 +4903,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5012,7 +4956,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5065,7 +5009,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5076,7 +5020,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5120,7 +5064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5155,7 +5099,7 @@
         <v>388</v>
       </c>
       <c r="L40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M40" t="s">
         <v>431</v>
@@ -5173,7 +5117,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5208,7 +5152,7 @@
         <v>388</v>
       </c>
       <c r="L41">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M41" t="s">
         <v>432</v>
@@ -5226,7 +5170,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5279,7 +5223,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5332,7 +5276,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5385,7 +5329,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5432,7 +5376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5476,16 +5420,16 @@
         <v>13200</v>
       </c>
       <c r="P46">
-        <v>2191.4639999999999</v>
+        <v>2191.464</v>
       </c>
       <c r="R46">
         <v>13200</v>
       </c>
       <c r="S46">
-        <v>2191.4639999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>2191.464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5538,7 +5482,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5591,7 +5535,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5635,16 +5579,16 @@
         <v>13200</v>
       </c>
       <c r="P49">
-        <v>2191.4639999999999</v>
+        <v>2191.464</v>
       </c>
       <c r="R49">
         <v>13200</v>
       </c>
       <c r="S49">
-        <v>2191.4639999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>2191.464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5697,7 +5641,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5750,7 +5694,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5794,16 +5738,16 @@
         <v>13200</v>
       </c>
       <c r="P52">
-        <v>2191.4639999999999</v>
+        <v>2191.464</v>
       </c>
       <c r="R52">
         <v>13200</v>
       </c>
       <c r="S52">
-        <v>2191.4639999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>2191.464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5856,7 +5800,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5903,7 +5847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5947,16 +5891,16 @@
         <v>13200</v>
       </c>
       <c r="P55">
-        <v>2191.4639999999999</v>
+        <v>2191.464</v>
       </c>
       <c r="R55">
         <v>13200</v>
       </c>
       <c r="S55">
-        <v>2191.4639999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>2191.464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6009,7 +5953,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6062,7 +6006,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6115,7 +6059,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6159,16 +6103,16 @@
         <v>13200</v>
       </c>
       <c r="P59">
-        <v>2191.4639999999999</v>
+        <v>2191.464</v>
       </c>
       <c r="R59">
         <v>13200</v>
       </c>
       <c r="S59">
-        <v>2191.4639999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>2191.464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6221,7 +6165,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6265,7 +6209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6318,7 +6262,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6371,7 +6315,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6424,7 +6368,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6477,7 +6421,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6530,7 +6474,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6583,7 +6527,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6633,7 +6577,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6677,16 +6621,16 @@
         <v>5500</v>
       </c>
       <c r="P69">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R69">
         <v>5500</v>
       </c>
       <c r="S69">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6739,7 +6683,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6789,7 +6733,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6830,16 +6774,16 @@
         <v>4800</v>
       </c>
       <c r="P72">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R72">
         <v>4800</v>
       </c>
       <c r="S72">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6892,7 +6836,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6945,7 +6889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6998,7 +6942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7048,7 +6992,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7089,16 +7033,16 @@
         <v>4800</v>
       </c>
       <c r="P77">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R77">
         <v>4800</v>
       </c>
       <c r="S77">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7139,7 +7083,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7192,7 +7136,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7242,7 +7186,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7283,16 +7227,16 @@
         <v>4800</v>
       </c>
       <c r="P81">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R81">
         <v>4800</v>
       </c>
       <c r="S81">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7333,7 +7277,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7386,7 +7330,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7439,7 +7383,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7492,7 +7436,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7536,7 +7480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7589,7 +7533,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7642,7 +7586,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7695,7 +7639,7 @@
         <v>913.11</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7748,7 +7692,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7801,7 +7745,7 @@
         <v>913.11</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7854,7 +7798,7 @@
         <v>913.11</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7907,7 +7851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7957,7 +7901,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8010,7 +7954,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8021,7 +7965,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8074,7 +8018,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8127,7 +8071,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8180,7 +8124,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8233,7 +8177,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8286,7 +8230,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8339,7 +8283,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8392,7 +8336,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8445,7 +8389,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8456,7 +8400,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8500,7 +8444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8532,7 +8476,7 @@
         <v>388</v>
       </c>
       <c r="L107">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M107" t="s">
         <v>498</v>
@@ -8550,7 +8494,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8603,7 +8547,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8635,7 +8579,7 @@
         <v>388</v>
       </c>
       <c r="L109">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M109" t="s">
         <v>500</v>
@@ -8653,7 +8597,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8706,7 +8650,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8750,16 +8694,16 @@
         <v>4800</v>
       </c>
       <c r="P111">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R111">
         <v>4800</v>
       </c>
       <c r="S111">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8791,7 +8735,7 @@
         <v>388</v>
       </c>
       <c r="L112">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M112" t="s">
         <v>503</v>
@@ -8809,7 +8753,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8853,16 +8797,16 @@
         <v>4800</v>
       </c>
       <c r="P113">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R113">
         <v>4800</v>
       </c>
       <c r="S113">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8894,7 +8838,7 @@
         <v>388</v>
       </c>
       <c r="L114">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M114" t="s">
         <v>505</v>
@@ -8912,7 +8856,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8944,7 +8888,7 @@
         <v>388</v>
       </c>
       <c r="L115">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M115" t="s">
         <v>506</v>
@@ -8962,7 +8906,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9012,7 +8956,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9044,7 +8988,7 @@
         <v>388</v>
       </c>
       <c r="L117">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M117" t="s">
         <v>508</v>
@@ -9062,7 +9006,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9094,7 +9038,7 @@
         <v>388</v>
       </c>
       <c r="L118">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M118" t="s">
         <v>509</v>
@@ -9103,16 +9047,16 @@
         <v>4000</v>
       </c>
       <c r="P118">
-        <v>547.86599999999999</v>
+        <v>547.866</v>
       </c>
       <c r="R118">
         <v>4000</v>
       </c>
       <c r="S118">
-        <v>547.86599999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>547.866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9156,16 +9100,16 @@
         <v>4000</v>
       </c>
       <c r="P119">
-        <v>547.86599999999999</v>
+        <v>547.866</v>
       </c>
       <c r="R119">
         <v>4000</v>
       </c>
       <c r="S119">
-        <v>547.86599999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>547.866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9209,16 +9153,16 @@
         <v>4800</v>
       </c>
       <c r="P120">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R120">
         <v>4800</v>
       </c>
       <c r="S120">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9250,7 +9194,7 @@
         <v>388</v>
       </c>
       <c r="L121">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M121" t="s">
         <v>512</v>
@@ -9259,16 +9203,16 @@
         <v>4800</v>
       </c>
       <c r="P121">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R121">
         <v>4800</v>
       </c>
       <c r="S121">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9300,7 +9244,7 @@
         <v>388</v>
       </c>
       <c r="L122">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M122" t="s">
         <v>513</v>
@@ -9318,7 +9262,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9350,7 +9294,7 @@
         <v>388</v>
       </c>
       <c r="L123">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M123" t="s">
         <v>514</v>
@@ -9368,7 +9312,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9400,7 +9344,7 @@
         <v>388</v>
       </c>
       <c r="L124">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M124" t="s">
         <v>515</v>
@@ -9418,7 +9362,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9450,7 +9394,7 @@
         <v>388</v>
       </c>
       <c r="L125">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M125" t="s">
         <v>516</v>
@@ -9459,16 +9403,16 @@
         <v>4000</v>
       </c>
       <c r="P125">
-        <v>547.86599999999999</v>
+        <v>547.866</v>
       </c>
       <c r="R125">
         <v>4000</v>
       </c>
       <c r="S125">
-        <v>547.86599999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>547.866</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9512,16 +9456,16 @@
         <v>4000</v>
       </c>
       <c r="P126">
-        <v>547.86599999999999</v>
+        <v>547.866</v>
       </c>
       <c r="R126">
         <v>4000</v>
       </c>
       <c r="S126">
-        <v>547.86599999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>547.866</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9565,16 +9509,16 @@
         <v>4800</v>
       </c>
       <c r="P127">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R127">
         <v>4800</v>
       </c>
       <c r="S127">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9606,7 +9550,7 @@
         <v>388</v>
       </c>
       <c r="L128">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M128" t="s">
         <v>519</v>
@@ -9615,16 +9559,16 @@
         <v>4800</v>
       </c>
       <c r="P128">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R128">
         <v>4800</v>
       </c>
       <c r="S128">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9674,7 +9618,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9706,7 +9650,7 @@
         <v>388</v>
       </c>
       <c r="L130">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M130" t="s">
         <v>521</v>
@@ -9724,7 +9668,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9735,7 +9679,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9788,7 +9732,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9835,7 +9779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9888,7 +9832,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9941,7 +9885,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9991,7 +9935,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10044,7 +9988,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10079,7 +10023,7 @@
         <v>388</v>
       </c>
       <c r="L138">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M138" t="s">
         <v>529</v>
@@ -10097,7 +10041,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10150,7 +10094,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10203,7 +10147,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10253,7 +10197,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10306,7 +10250,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10359,7 +10303,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10412,7 +10356,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10465,7 +10409,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10515,7 +10459,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10568,7 +10512,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10618,7 +10562,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10668,7 +10612,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10721,7 +10665,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10774,7 +10718,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10827,7 +10771,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10880,7 +10824,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10933,7 +10877,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10986,7 +10930,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11039,7 +10983,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11089,7 +11033,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11142,7 +11086,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11186,16 +11130,16 @@
         <v>5500</v>
       </c>
       <c r="P159">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R159">
         <v>5500</v>
       </c>
       <c r="S159">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11248,7 +11192,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11301,7 +11245,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11354,7 +11298,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11407,7 +11351,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11457,7 +11401,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11504,7 +11448,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11557,7 +11501,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11607,7 +11551,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11654,7 +11598,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11707,7 +11651,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11760,7 +11704,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11810,7 +11754,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11863,7 +11807,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11898,7 +11842,7 @@
         <v>388</v>
       </c>
       <c r="L173">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M173" t="s">
         <v>564</v>
@@ -11916,7 +11860,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11969,7 +11913,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -12022,7 +11966,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -12072,7 +12016,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -12125,7 +12069,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -12178,7 +12122,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -12231,7 +12175,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -12284,7 +12228,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12334,7 +12278,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12387,7 +12331,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12437,7 +12381,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12487,7 +12431,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12540,7 +12484,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12593,7 +12537,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12646,7 +12590,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12699,7 +12643,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12752,7 +12696,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12805,7 +12749,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12858,7 +12802,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12911,7 +12855,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12964,7 +12908,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -13008,16 +12952,16 @@
         <v>5500</v>
       </c>
       <c r="P194">
-        <v>730.48800000000006</v>
+        <v>730.4880000000001</v>
       </c>
       <c r="R194">
         <v>5500</v>
       </c>
       <c r="S194">
-        <v>730.48800000000006</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>730.4880000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -13070,7 +13014,7 @@
         <v>2191.5</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -13123,7 +13067,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -13176,7 +13120,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -13229,7 +13173,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -13279,7 +13223,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -13326,7 +13270,7 @@
         <v>3652.5</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -13379,7 +13323,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -13429,7 +13373,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -13473,7 +13417,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -13520,7 +13464,7 @@
         <v>1095.75</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -13564,7 +13508,7 @@
         <v>1095.732</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13611,7 +13555,7 @@
         <v>1095.75</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13622,7 +13566,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13666,7 +13610,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13701,7 +13645,7 @@
         <v>388</v>
       </c>
       <c r="L209">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M209" t="s">
         <v>600</v>
@@ -13713,7 +13657,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13760,7 +13704,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13807,7 +13751,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13854,7 +13798,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13898,7 +13842,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13933,7 +13877,7 @@
         <v>388</v>
       </c>
       <c r="L214">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M214" t="s">
         <v>605</v>
@@ -13945,7 +13889,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13992,7 +13936,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -14039,7 +13983,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14087,19 +14031,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S217" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="18">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>